--- a/docs/ValueSet-vs-qualificacao.xlsx
+++ b/docs/ValueSet-vs-qualificacao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-17T18:01:25-03:00</t>
+    <t>2023-09-17T18:19:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-vs-qualificacao.xlsx
+++ b/docs/ValueSet-vs-qualificacao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-17T18:19:19-03:00</t>
+    <t>2023-09-18T09:23:55-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-vs-qualificacao.xlsx
+++ b/docs/ValueSet-vs-qualificacao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-18T09:23:55-03:00</t>
+    <t>2023-09-18T16:59:10-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-vs-qualificacao.xlsx
+++ b/docs/ValueSet-vs-qualificacao.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://kyriosdata.github.io/ig/ValueSet/vs-qualificacao</t>
+    <t>https://fhir.fabrica.inf.ufg.br/ig/ValueSet/vs-qualificacao</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-18T16:59:10-03:00</t>
+    <t>2023-12-21T20:59:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://kyriosdata.github.io/ig/CodeSystem/qualificacao</t>
+    <t>https://fhir.fabrica.inf.ufg.br/ig/CodeSystem/qualificacao</t>
   </si>
 </sst>
 </file>
